--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112397.1475791089</v>
+        <v>-115300.6891915786</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>169.8607735608921</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>25.34286227408478</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>74.03517090850846</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>110.5201371783735</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>89.07602811714224</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>119.3621430405822</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>160.669177482782</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9030075311836</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>77.15919157187217</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>153.173831318403</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.68711328633891</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>150.5979763390389</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>114.4746605491561</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>88.743759728098</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.68217349194853</v>
+        <v>182.1354421352457</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>158.712704769694</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>58.93605076848745</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>30.82797978766568</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>156.6571821981382</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.7123319296408</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>81.54417886827336</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.103882821189</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2397.886883738875</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.103882821189</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.103882821189</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="C5" t="n">
-        <v>1413.148854308789</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.883155702039</v>
+        <v>1013.009237675673</v>
       </c>
       <c r="E5" t="n">
-        <v>669.0949031037944</v>
+        <v>627.2209850774286</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>216.2350802878211</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146241</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="C7" t="n">
-        <v>409.5384547146241</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>131.8815591656899</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1469.273141255052</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1100.31062431464</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1100.31062431464</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1100.31062431464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>689.3247195250326</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500978</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1469.273141255052</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084172</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,46 +5124,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,16 +5200,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>805.5092287479694</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
@@ -5288,16 +5288,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,13 +5358,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.5038042865474</v>
+        <v>529.525731183237</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,16 +5437,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208131</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>999.1036114208131</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>771.1140605227957</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.1522691167871</v>
+        <v>711.1741960134767</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,49 +5516,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5595,7 +5595,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>389.6913148129298</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C19" t="n">
-        <v>389.6913148129298</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D19" t="n">
-        <v>389.6913148129298</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="U19" t="n">
-        <v>1382.575103097325</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="V19" t="n">
-        <v>1127.890614891438</v>
+        <v>1198.376021052699</v>
       </c>
       <c r="W19" t="n">
-        <v>838.4734448544772</v>
+        <v>1198.376021052699</v>
       </c>
       <c r="X19" t="n">
-        <v>610.4838939564598</v>
+        <v>970.3864701546818</v>
       </c>
       <c r="Y19" t="n">
-        <v>389.6913148129298</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.3002584566048</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5938,22 +5938,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1733.518208408635</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1444.415341534279</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>1189.730853328392</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.730853328392</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X22" t="n">
-        <v>961.7413024303746</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.9487232868445</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,22 +6069,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978506</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978506</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978506</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978506</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978506</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,16 +6148,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978506</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6847,7 +6847,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476831</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400235</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.8730681025885</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>295.6959297699606</v>
+        <v>82.82286166737187</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143189</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>105.0742887270131</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>129.8408936239968</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314408</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.9024798601463</v>
+        <v>36.44921121684908</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4991334359189</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>159.6486025836073</v>
       </c>
     </row>
     <row r="20">
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>188.7209694885035</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365897</v>
+        <v>129.8658161384528</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>10.31347632938738</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>67.07129414993899</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1158573.88079718</v>
+        <v>1158573.880797181</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299064.1401954729</v>
+        <v>299064.1401954732</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
         <v>297811.3401652375</v>
       </c>
       <c r="F2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="G2" t="n">
         <v>297811.3401652376</v>
       </c>
       <c r="H2" t="n">
-        <v>297811.3401652376</v>
+        <v>297811.3401652377</v>
       </c>
       <c r="I2" t="n">
-        <v>297811.3401652374</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
@@ -26350,10 +26350,10 @@
         <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.663699106</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.133573591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363164</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26424,34 +26424,34 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499379</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
+        <v>5067.592601670443</v>
+      </c>
+      <c r="L4" t="n">
         <v>5067.592601670445</v>
       </c>
-      <c r="L4" t="n">
-        <v>5067.592601670437</v>
-      </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670456</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670456</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,7 +26488,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561392.9523232722</v>
+        <v>-561451.7958132961</v>
       </c>
       <c r="C6" t="n">
-        <v>23967.0797079654</v>
+        <v>23967.07970796552</v>
       </c>
       <c r="D6" t="n">
-        <v>23967.07970796539</v>
+        <v>23967.07970796549</v>
       </c>
       <c r="E6" t="n">
-        <v>-551040.3157568767</v>
+        <v>-551107.5112471024</v>
       </c>
       <c r="F6" t="n">
-        <v>176337.09823653</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="G6" t="n">
-        <v>176337.0982365303</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="H6" t="n">
-        <v>176337.0982365301</v>
+        <v>176269.9027463044</v>
       </c>
       <c r="I6" t="n">
-        <v>176337.0982365299</v>
+        <v>176269.9027463039</v>
       </c>
       <c r="J6" t="n">
-        <v>-180037.2811154168</v>
+        <v>-180072.019040852</v>
       </c>
       <c r="K6" t="n">
-        <v>196489.8524581749</v>
+        <v>196455.1145327389</v>
       </c>
       <c r="L6" t="n">
-        <v>196489.8524581747</v>
+        <v>196455.114532739</v>
       </c>
       <c r="M6" t="n">
-        <v>66847.53761922992</v>
+        <v>66812.79969379416</v>
       </c>
       <c r="N6" t="n">
-        <v>196489.8524581746</v>
+        <v>196455.1145327389</v>
       </c>
       <c r="O6" t="n">
-        <v>196489.8524581745</v>
+        <v>196455.114532739</v>
       </c>
       <c r="P6" t="n">
-        <v>172240.3779867952</v>
+        <v>172240.3779867949</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>323.8981064433282</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>286.9082390110972</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>56.72668392025429</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>163.0616152066858</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>287.5139027011292</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>253.114992538013</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>87.71246548702877</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>90.15061068717874</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>260.6103387023919</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.065145183796</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>16.71182592001202</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>17.88169127836775</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,25 +33260,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,28 +33497,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>307.9814458135827</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>432.1946015714842</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359025</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282428</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35896,7 +35896,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226417</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>169.4270660337085</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,25 +38093,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>290.0605676494659</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
